--- a/natmiOut/OldD0/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.234248778189414</v>
+        <v>0.3239616666666667</v>
       </c>
       <c r="H2">
-        <v>0.234248778189414</v>
+        <v>0.9718850000000001</v>
       </c>
       <c r="I2">
-        <v>0.1279623600093698</v>
+        <v>0.1555281019885789</v>
       </c>
       <c r="J2">
-        <v>0.1279623600093698</v>
+        <v>0.1555281019885789</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.939307138189429</v>
+        <v>0.07823633333333334</v>
       </c>
       <c r="N2">
-        <v>0.939307138189429</v>
+        <v>0.234709</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.07325462794193288</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07325462794193287</v>
       </c>
       <c r="Q2">
-        <v>0.2200315494654688</v>
+        <v>0.02534557294055556</v>
       </c>
       <c r="R2">
-        <v>0.2200315494654688</v>
+        <v>0.228110156465</v>
       </c>
       <c r="S2">
-        <v>0.1279623600093698</v>
+        <v>0.01139315324568834</v>
       </c>
       <c r="T2">
-        <v>0.1279623600093698</v>
+        <v>0.01139315324568833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.911909340611727</v>
+        <v>0.3239616666666667</v>
       </c>
       <c r="H3">
-        <v>0.911909340611727</v>
+        <v>0.9718850000000001</v>
       </c>
       <c r="I3">
-        <v>0.4981459123979251</v>
+        <v>0.1555281019885789</v>
       </c>
       <c r="J3">
-        <v>0.4981459123979251</v>
+        <v>0.1555281019885789</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.939307138189429</v>
+        <v>0.989769</v>
       </c>
       <c r="N3">
-        <v>0.939307138189429</v>
+        <v>2.969307</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9267453720580672</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9267453720580671</v>
       </c>
       <c r="Q3">
-        <v>0.8565629530182105</v>
+        <v>0.320647214855</v>
       </c>
       <c r="R3">
-        <v>0.8565629530182105</v>
+        <v>2.885824933695</v>
       </c>
       <c r="S3">
-        <v>0.4981459123979251</v>
+        <v>0.1441349487428906</v>
       </c>
       <c r="T3">
-        <v>0.4981459123979251</v>
+        <v>0.1441349487428905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,241 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.026996666666667</v>
+      </c>
+      <c r="H4">
+        <v>3.08099</v>
+      </c>
+      <c r="I4">
+        <v>0.4930424144274184</v>
+      </c>
+      <c r="J4">
+        <v>0.4930424144274184</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.07823633333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.234709</v>
+      </c>
+      <c r="O4">
+        <v>0.07325462794193288</v>
+      </c>
+      <c r="P4">
+        <v>0.07325462794193287</v>
+      </c>
+      <c r="Q4">
+        <v>0.08034845354555555</v>
+      </c>
+      <c r="R4">
+        <v>0.72313608191</v>
+      </c>
+      <c r="S4">
+        <v>0.03611763862847282</v>
+      </c>
+      <c r="T4">
+        <v>0.03611763862847281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.684448773508923</v>
-      </c>
-      <c r="H4">
-        <v>0.684448773508923</v>
-      </c>
-      <c r="I4">
-        <v>0.3738917275927051</v>
-      </c>
-      <c r="J4">
-        <v>0.3738917275927051</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.939307138189429</v>
-      </c>
-      <c r="N4">
-        <v>0.939307138189429</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.6429076186819311</v>
-      </c>
-      <c r="R4">
-        <v>0.6429076186819311</v>
-      </c>
-      <c r="S4">
-        <v>0.3738917275927051</v>
-      </c>
-      <c r="T4">
-        <v>0.3738917275927051</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.026996666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.08099</v>
+      </c>
+      <c r="I5">
+        <v>0.4930424144274184</v>
+      </c>
+      <c r="J5">
+        <v>0.4930424144274184</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.989769</v>
+      </c>
+      <c r="N5">
+        <v>2.969307</v>
+      </c>
+      <c r="O5">
+        <v>0.9267453720580672</v>
+      </c>
+      <c r="P5">
+        <v>0.9267453720580671</v>
+      </c>
+      <c r="Q5">
+        <v>1.01648946377</v>
+      </c>
+      <c r="R5">
+        <v>9.14840517393</v>
+      </c>
+      <c r="S5">
+        <v>0.4569247757989456</v>
+      </c>
+      <c r="T5">
+        <v>0.4569247757989455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.73202</v>
+      </c>
+      <c r="H6">
+        <v>2.19606</v>
+      </c>
+      <c r="I6">
+        <v>0.3514294835840027</v>
+      </c>
+      <c r="J6">
+        <v>0.3514294835840027</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.07823633333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.234709</v>
+      </c>
+      <c r="O6">
+        <v>0.07325462794193288</v>
+      </c>
+      <c r="P6">
+        <v>0.07325462794193287</v>
+      </c>
+      <c r="Q6">
+        <v>0.05727056072666667</v>
+      </c>
+      <c r="R6">
+        <v>0.5154350465400001</v>
+      </c>
+      <c r="S6">
+        <v>0.02574383606777173</v>
+      </c>
+      <c r="T6">
+        <v>0.02574383606777172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.73202</v>
+      </c>
+      <c r="H7">
+        <v>2.19606</v>
+      </c>
+      <c r="I7">
+        <v>0.3514294835840027</v>
+      </c>
+      <c r="J7">
+        <v>0.3514294835840027</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.989769</v>
+      </c>
+      <c r="N7">
+        <v>2.969307</v>
+      </c>
+      <c r="O7">
+        <v>0.9267453720580672</v>
+      </c>
+      <c r="P7">
+        <v>0.9267453720580671</v>
+      </c>
+      <c r="Q7">
+        <v>0.72453070338</v>
+      </c>
+      <c r="R7">
+        <v>6.52077633042</v>
+      </c>
+      <c r="S7">
+        <v>0.325685647516231</v>
+      </c>
+      <c r="T7">
+        <v>0.325685647516231</v>
       </c>
     </row>
   </sheetData>
